--- a/spec/Requirements.xlsx
+++ b/spec/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/gsowers_mines_edu/Documents/Ice_challenge/BTI_Phase_2/Systems Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F019792E-87B7-41E8-BA04-C61C2AEA2257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C3726BD-147A-49D2-BE23-C8733F77DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30945" yWindow="5265" windowWidth="11835" windowHeight="11820" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="367">
   <si>
     <r>
       <rPr>
@@ -474,15 +474,78 @@
     <t>Introduction</t>
   </si>
   <si>
+    <t>Defined Term</t>
+  </si>
+  <si>
+    <t>Brackets</t>
+  </si>
+  <si>
+    <t>[] indicates an estimated value, or a term or requirement defined in this Spec (or something that maybe should be defined in this Spec but is not yet)</t>
+  </si>
+  <si>
+    <t>Carrying Capacity</t>
+  </si>
+  <si>
+    <t>40 kg</t>
+  </si>
+  <si>
+    <t>Excavation Rate</t>
+  </si>
+  <si>
+    <t>70 kg/hour</t>
+  </si>
+  <si>
+    <t>Total Payload Mass</t>
+  </si>
+  <si>
+    <t>65 kg</t>
+  </si>
+  <si>
+    <t>DS Mass</t>
+  </si>
+  <si>
+    <t>25 kg</t>
+  </si>
+  <si>
+    <t>Daily Mass</t>
+  </si>
+  <si>
+    <t>800 kg</t>
+  </si>
+  <si>
+    <t>DS Base Power Consumption</t>
+  </si>
+  <si>
+    <t>20 W</t>
+  </si>
+  <si>
+    <t>DS Max Power Consumption</t>
+  </si>
+  <si>
+    <t>300 W</t>
+  </si>
+  <si>
+    <t>Excavation Power Interface</t>
+  </si>
+  <si>
+    <t>20 VDC</t>
+  </si>
+  <si>
+    <t>Unloading Rate</t>
+  </si>
+  <si>
+    <t>600 kg/hour</t>
+  </si>
+  <si>
+    <t>Loading Rate</t>
+  </si>
+  <si>
+    <t>150 kg/hour</t>
+  </si>
+  <si>
     <t>Definitions</t>
   </si>
   <si>
-    <t>Brackets</t>
-  </si>
-  <si>
-    <t>[] indicates an estimated value, or a term or requirement defined in this Spec (or something that maybe should be defined in this Spec but is not yet)</t>
-  </si>
-  <si>
     <t>Digger Control System (DCS)</t>
   </si>
   <si>
@@ -495,16 +558,16 @@
     <t xml:space="preserve">The Outpost Digger System refers to the total system used to excavate, load, transport, and unload regolith simulant during the Break the Ice challenge. </t>
   </si>
   <si>
-    <t>Digger Systems</t>
-  </si>
-  <si>
-    <t>The term Digger Systems refers to the cumulative subsystems that Mines is responsible for, the Excavation subsystem and the Transfer subsystem. This term also includes the Digger Control Systems.</t>
+    <t>Digger Systems (DS)</t>
+  </si>
+  <si>
+    <t>The term {ref:Digger Systems (DS)} refers to the cumulative subsystems that Mines is responsible for, the Excavation subsystem and the Transfer subsystem. This term also includes the Digger Control Systems.</t>
   </si>
   <si>
     <t>Rover</t>
   </si>
   <si>
-    <t>The term rover refers to the Lunar Outpost Cerebus rover that the Digger Systems are attached to. The Cerbus rover provides mobility, power, and data handling for the Digger Systems.</t>
+    <t>The term rover refers to the Lunar Outpost Cerebus rover that the {ref:Digger Systems (DS)} are attached to. The Cerbus rover provides mobility, power, and data handling for the Digger Systems.</t>
   </si>
   <si>
     <t>Excavation Subsystem</t>
@@ -528,7 +591,7 @@
     <t>M1</t>
   </si>
   <si>
-    <t>M1 shall be started by September 15th, 2023. M1 is a 15-day duration test where 800 kg of regolith simulant shall be delivered from an excavation pit to a specified drop off location 500 m away. M1 will be performed at the Colorado Air and Space Port (CASP) and will therefore be performed subject to the CASP envrionments.</t>
+    <t>M1 shall be started by September 15th, 2023. M1 is a 15-day duration test where {term:Daily Mass} of regolith simulant shall be delivered from an excavation pit to a specified drop off location 500 m away. M1 will be performed at the Colorado Air and Space Port (CASP) and will therefore be performed subject to the CASP envrionments.</t>
   </si>
   <si>
     <t>M2</t>
@@ -543,31 +606,31 @@
     <t>Cost</t>
   </si>
   <si>
-    <t xml:space="preserve">The total budget for research, testing, and manufacturing of the Digger Systems shall be less than $40,000. This amount is half of the sum of the winnings from Phase 1 and half of the Phase 2 Level 1 winnings.  </t>
+    <t xml:space="preserve">The total budget for research, testing, and manufacturing of the {ref:Digger Systems (DS)} shall be less than $40,000. This amount is half of the sum of the winnings from Phase 1 and half of the Phase 2 Level 1 winnings.  </t>
   </si>
   <si>
     <t>Mass (Digger Systems)</t>
   </si>
   <si>
-    <t>The total mass of the Digger Systems shall be less than 25 kg.</t>
+    <t>The total mass of the {ref:Digger Systems (DS)} shall be less than {term:DS Mass}.</t>
   </si>
   <si>
     <t>Mass (Payload Mass)</t>
   </si>
   <si>
-    <t>The payload mass of the Rover is [Totat Payload Mass]. Therfore, the amount of simulant that can be carried is the [Total Payload Mass] minus the Digger Systems' mass.</t>
+    <t>The payload mass of the Rover is {term:Totat Payload Mass}. Therfore, the amount of simulant that can be carried is the {term:Totat Payload Mass} minus the Digger Systems' mass.</t>
   </si>
   <si>
     <t>Digger Systems Base Energy Consumption</t>
   </si>
   <si>
-    <t xml:space="preserve">The Digger Systems shall consume less than [20] W while the ODS is in the [Travel and Charging] submodes. </t>
+    <t xml:space="preserve">The {ref:Digger Systems (DS)} shall consume less than {term:Digger Systems Base Power Consumption} while the ODS is in the [Travel and Charging] submodes. </t>
   </si>
   <si>
     <t>Digger Systems Operational Energy Consumption</t>
   </si>
   <si>
-    <t>The Digger System shall consume less than [300] W while the ODS is in the [Breaking, Loading, and Unloading] submodes.</t>
+    <t>The {ref:Digger Systems (DS)} shall consume less than {term:DS Max Power Consumption} while the ODS is in the [Breaking, Loading, and Unloading] submodes.</t>
   </si>
   <si>
     <t>MOE#1</t>
@@ -582,7 +645,7 @@
     <t>Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">The Digger Systems shall have an uptime of 95% throughout M1. </t>
+    <t xml:space="preserve">The {ref:Digger Systems (DS)} shall have an uptime of 95% throughout M1. </t>
   </si>
   <si>
     <t>Capabilities</t>
@@ -594,10 +657,7 @@
     <t xml:space="preserve">The Excavation subsystem shall break regolith simulant into pieces small enough to be within the Transfer subsystem. </t>
   </si>
   <si>
-    <t>Excavation Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Excavation subsystem shall [Excavate Simulant] at an average rate of [70] kg/hour throughout the 15-day duration of [M1]. The listed rate should be verified by tests that last at least 30 minutes in duration.  </t>
+    <t xml:space="preserve">The Excavation subsystem shall {ref:Excavate Simulant} at an average rate of {term:Excavation Rate} throughout the 15-day duration of {ref:M1}. The listed rate should be verified by tests that last at least 30 minutes in duration.  </t>
   </si>
   <si>
     <t>Transfer Simulant to Rover</t>
@@ -606,16 +666,10 @@
     <t xml:space="preserve">The Transfer subsystem shall transfer Excavated Simulant from the ground to the Tranfer subsystem.  </t>
   </si>
   <si>
-    <t>Loading Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Transfer subsystem shall be transfer excavated simulant from the ground to the Transfer Subsystem at an average rate of 150 kg/hour throughout the 15-day duration of [M1]. The listed rate should be verified by tests that last at least 20 minutes in duration.  </t>
-  </si>
-  <si>
-    <t>Unloading Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Transfer subsystem shall be transfer excavated simulant from the Rover to the [Weigh Station] at an average rate of 600 kg/hour throughout the 15-day duration of [M1]. </t>
+    <t xml:space="preserve">The Transfer subsystem shall be transfer excavated simulant from the ground to the Transfer Subsystem at an average rate of {term:Loading Rate} throughout the 15-day duration of {ref:M1}. The listed rate should be verified by tests that last at least 20 minutes in duration.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Transfer subsystem shall be transfer excavated simulant from the Rover to the [Weigh Station] at an average rate of {term:Unloading Rate} throughout the 15-day duration of {ref:M1}. </t>
   </si>
   <si>
     <t>Carrying Capacity Measurement</t>
@@ -624,10 +678,7 @@
     <t>The ODS shall estimate the mass of simulant contained within the Transfer Subsystem within +/- [5] kg.</t>
   </si>
   <si>
-    <t>Carrying Capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Transfer subsystem shall contain [40] kg of Excavated simulant. It is assumed the density of the excavated simulant will have half the density of unexcavated simulant. </t>
+    <t xml:space="preserve">The Transfer subsystem shall contain {term:Carrying Capacity} of Excavated simulant. It is assumed the density of the excavated simulant will have half the density of unexcavated simulant. </t>
   </si>
   <si>
     <t>Doesn't this set E15 Mass (Payload Mass)?</t>
@@ -636,13 +687,13 @@
     <t>Travelling Center of Gravity</t>
   </si>
   <si>
-    <t>The Transfer subsytem shall be able to move [40] kg of contained simulant to a location where the ODS's center of gravity is less than [30] cm from the midpoint of the Rover. This is the location that the Transfer subsystem will keep the contained simulant for [Travelling]. This requirement should be flowed into a requirement that defines the angles the Transfer Subsystem shall achieve relative to the Rover.</t>
+    <t>The Transfer subsytem shall be able to move {term:Carrying Capcaity} of contained simulant to a location where the ODS's center of gravity is less than [30] cm from the midpoint of the Rover. This is the location that the Transfer subsystem will keep the contained simulant for [Travelling]. This requirement should be flowed into a requirement that defines the angles the Transfer Subsystem shall achieve relative to the Rover.</t>
   </si>
   <si>
     <t>Bucket Scoop Height</t>
   </si>
   <si>
-    <t xml:space="preserve">The Transfer subsystem shall be able to move the leading edge of the bucket scoop to heights [-3 to 0] cm during [Loading] relative to the bottom of the Rover's wheel. [Travelling Center of Gravity] may dictate additional height capabilities for the bucket scoop. </t>
+    <t xml:space="preserve">The Transfer subsystem shall be able to move the leading edge of the bucket scoop to heights [-3 to 0] cm during [Loading] relative to the bottom of the Rover's wheel. {ref:Travelling Center of Gravity} may dictate additional height capabilities for the bucket scoop. </t>
   </si>
   <si>
     <t>Bucket Scoop Angle</t>
@@ -681,7 +732,7 @@
     <t>Mechanical</t>
   </si>
   <si>
-    <t>The Digger Systems shall mechanically attach to the Rover. The attachment will provide static attachment.</t>
+    <t>The {ref:Digger Systems (DS)} shall mechanically attach to the Rover. The attachment will provide static attachment.</t>
   </si>
   <si>
     <t>All necessary degrees of freedom will be provided by the Digger Systems.</t>
@@ -690,7 +741,7 @@
     <t>Electrical Power</t>
   </si>
   <si>
-    <t xml:space="preserve">The Digger Systems shall recieve [28] VDC power from the Rover. </t>
+    <t xml:space="preserve">The {ref:Digger Systems (DS)} shall recieve {term:Excavation Power Interface} power from the Rover. </t>
   </si>
   <si>
     <t>Battery Capacity</t>
@@ -739,7 +790,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The Digger systems shall be resistant to water and snow. </t>
+    <t xml:space="preserve">The {ref:Digger Systems (DS)} shall be resistant to water and snow. </t>
   </si>
   <si>
     <t>Should this be separated this out into rain/snow operational conditions</t>
@@ -748,7 +799,7 @@
     <t>Wet environment</t>
   </si>
   <si>
-    <t>In M1 The Digger shall be able to operate in a wet environment, such as traversing snow or puddles</t>
+    <t>In {ref:M1} The Digger System shall be able to operate in a wet environment, such as traversing snow or puddles</t>
   </si>
   <si>
     <t>Feel free to delete this line or replace the subject, but just a thought</t>
@@ -760,19 +811,16 @@
     <t>In M1 the ODS shall be able to handle sustained winds of [local wind speed]</t>
   </si>
   <si>
-    <t>In M1 the ODS shall be able to handle wind gusts of [local gust speed]</t>
-  </si>
-  <si>
     <t>Dust</t>
   </si>
   <si>
-    <t xml:space="preserve">The Digger systems shall be tolerant to dust. </t>
+    <t xml:space="preserve">The {ref:Digger Systems (DS)} shall be tolerant to dust. </t>
   </si>
   <si>
     <t>Temperature</t>
   </si>
   <si>
-    <t>The Digger systems shall withstand ambient temperatures between [30 to 100] degrees Farenheit.</t>
+    <t>The {ref:Digger Systems (DS)} shall withstand ambient temperatures between [30 to 100] degrees Farenheit.</t>
   </si>
   <si>
     <t>Vibration</t>
@@ -787,7 +835,7 @@
     <t>Vacuum</t>
   </si>
   <si>
-    <t>The Digger Systems shall use technologies who's fundamental modes of operation can function in a vacuum.</t>
+    <t>The {ref:Digger Systems (DS)} shall use technologies who's fundamental modes of operation can function in a vacuum.</t>
   </si>
   <si>
     <t>This will be the environment for M2, but M1 we'll to consider as well</t>
@@ -796,13 +844,13 @@
     <t>Test Facility</t>
   </si>
   <si>
-    <t xml:space="preserve">The Test Facility operating environment includes the [Dust, Water, and Vacuum] environmental requirements. </t>
+    <t xml:space="preserve">The Test Facility operating environment includes the {ref:Dust}, {ref:Water}, and {ref:Vacuum} environmental requirements. </t>
   </si>
   <si>
     <t>CASP</t>
   </si>
   <si>
-    <t xml:space="preserve">The CASP operating environment includes the [Water, Dust, Temperature, and Vacuum] environmental requirements. </t>
+    <t xml:space="preserve">The CASP operating environment includes the{ref:Dust}, {ref:Water}, {ref:Temperature}, and {ref:Vacuum} environmental requirements. </t>
   </si>
   <si>
     <t>NASA Test Bed</t>
@@ -814,7 +862,7 @@
     <t xml:space="preserve">Maintenance </t>
   </si>
   <si>
-    <t>The Digger Systems shall be able to be maintained without the need of a clean room environment.</t>
+    <t>The {ref:Digger Systems (DS)} shall be able to be maintained without the need of a clean room environment.</t>
   </si>
   <si>
     <t>Design and Manufacturing</t>
@@ -867,7 +915,7 @@
     <t>1-Day ODS Test</t>
   </si>
   <si>
-    <t>Success Criteria: 800 kg delivered to a deliver site, emulating 1 day of [M1] mission</t>
+    <t>Success Criteria: 800 kg delivered to a deliver site, emulating 1 day of {term:M1} mission</t>
   </si>
   <si>
     <t>Preparation for Deliver</t>
@@ -1219,7 +1267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1354,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1490,7 +1544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1557,6 +1611,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4973,7 +5028,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -5166,31 +5221,31 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="5" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="5" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="5" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="5" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="5" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -5263,7 +5318,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="5" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -5298,7 +5353,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -5376,12 +5431,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913ADA01-2A5C-4AD7-9B74-A825D20E4BA2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:G69"/>
+  <dimension ref="B1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5420,7 +5474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" hidden="1">
+    <row r="4" spans="2:7" ht="30">
       <c r="B4" s="26" t="s">
         <v>110</v>
       </c>
@@ -5434,7 +5488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="45.75" hidden="1">
+    <row r="5" spans="2:7">
       <c r="B5" s="26" t="s">
         <v>110</v>
       </c>
@@ -5448,7 +5502,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" hidden="1">
+    <row r="6" spans="2:7">
       <c r="B6" s="26" t="s">
         <v>110</v>
       </c>
@@ -5462,7 +5516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="45.75" hidden="1">
+    <row r="7" spans="2:7">
       <c r="B7" s="26" t="s">
         <v>110</v>
       </c>
@@ -5476,7 +5530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="45.75" hidden="1">
+    <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
         <v>110</v>
       </c>
@@ -5490,21 +5544,21 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="45.75" hidden="1">
+    <row r="9" spans="2:7">
       <c r="B9" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>122</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="60.75" hidden="1">
+    <row r="10" spans="2:7">
       <c r="B10" s="26" t="s">
         <v>110</v>
       </c>
@@ -5518,300 +5572,297 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="62.25" hidden="1" customHeight="1">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="22" t="s">
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E12" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="60.75" hidden="1">
-      <c r="B12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="22" t="s">
+    <row r="13" spans="2:7">
+      <c r="B13" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E13" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="45.75" hidden="1">
-      <c r="B13" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="22" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E14" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="23" t="s">
+    </row>
+    <row r="15" spans="2:7" ht="45.75">
+      <c r="B15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" hidden="1">
-      <c r="B14" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E15" s="23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="47.25" hidden="1" customHeight="1">
-      <c r="B15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="22" t="s">
+    <row r="16" spans="2:7" ht="30">
+      <c r="B16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B16" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="22" t="s">
+    <row r="17" spans="2:5" ht="45.75">
+      <c r="B17" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B17" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="22" t="s">
+    <row r="18" spans="2:5" ht="45.75">
+      <c r="B18" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E18" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B18" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="22" t="s">
+    <row r="19" spans="2:5" ht="45.75">
+      <c r="B19" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B20" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>132</v>
+    <row r="20" spans="2:5" ht="60.75">
+      <c r="B20" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="36.75" hidden="1" customHeight="1">
+      <c r="E20" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="62.25" customHeight="1">
       <c r="B21" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E21" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="60.75">
+      <c r="B22" s="22" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B22" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="45.75">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="45.75">
       <c r="B23" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="36.75" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D24" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="47.25" customHeight="1">
+      <c r="B25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="50.25" customHeight="1">
-      <c r="B25" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>148</v>
-      </c>
       <c r="D25" s="22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="57.75" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="36.75" customHeight="1">
       <c r="B26" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="35.25" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="36.75" customHeight="1">
       <c r="B27" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="57.75" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="36.75" customHeight="1">
       <c r="B28" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="75.75">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="36.75" customHeight="1">
       <c r="B29" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="57.75" customHeight="1">
+    <row r="30" spans="2:5" ht="36.75" customHeight="1">
       <c r="B30" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="23" t="s">
+    </row>
+    <row r="31" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B31" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="57.75" customHeight="1">
-      <c r="B31" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="E31" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="23" t="s">
+    </row>
+    <row r="32" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B32" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="57.75" customHeight="1">
-      <c r="B32" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>170</v>
@@ -5820,487 +5871,611 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="57.75" customHeight="1">
+    <row r="33" spans="2:7" ht="45.75">
       <c r="B33" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="23" t="s">
+    </row>
+    <row r="34" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B34" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="57.75" customHeight="1">
-      <c r="B34" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="E34" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="23" t="s">
+    </row>
+    <row r="35" spans="2:7" ht="50.25" customHeight="1">
+      <c r="B35" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="57.75" customHeight="1">
-      <c r="B35" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="22" t="s">
+    <row r="36" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B36" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="23" t="s">
+    </row>
+    <row r="37" spans="2:7" ht="35.25" customHeight="1">
+      <c r="B37" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" hidden="1">
-      <c r="B36" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="E37" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="22" t="s">
+    </row>
+    <row r="38" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B38" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="G38" s="22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="22" t="s">
+    <row r="39" spans="2:7" ht="75.75">
+      <c r="B39" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B38" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="E39" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="23" t="s">
+    </row>
+    <row r="40" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B40" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B39" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="E40" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="23" t="s">
+    </row>
+    <row r="41" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B41" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B40" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="22" t="s">
+      <c r="E41" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E40" s="23" t="s">
+    </row>
+    <row r="42" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B42" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B41" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="E42" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E41" s="23" t="s">
+    </row>
+    <row r="43" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B43" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B42" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="E43" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="23" t="s">
+    </row>
+    <row r="44" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B44" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B43" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="E44" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="26" t="s">
+    </row>
+    <row r="45" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B45" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E45" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="G43" s="22" t="s">
+    </row>
+    <row r="46" spans="2:7" ht="30">
+      <c r="B46" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B44" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="26" t="s">
+      <c r="D46" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E46" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G44" s="22" t="s">
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B45" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="26" t="s">
+    <row r="48" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B48" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E48" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B46" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="23" t="s">
+    <row r="49" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B49" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B47" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="22" t="s">
+      <c r="E49" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="23" t="s">
+    </row>
+    <row r="50" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B50" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B48" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="22" t="s">
+      <c r="E50" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="26" t="s">
+    </row>
+    <row r="51" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B51" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B49" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="22" t="s">
+      <c r="E51" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E49" s="26" t="s">
+    </row>
+    <row r="52" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B52" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="E52" s="23" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B50" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="22" t="s">
+    <row r="53" spans="2:7" ht="60" customHeight="1">
+      <c r="B53" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="D53" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="E53" s="23" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B51" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="22" t="s">
+      <c r="G53" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="23" t="s">
+    </row>
+    <row r="54" spans="2:7" ht="60" customHeight="1">
+      <c r="B54" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" ht="60" hidden="1" customHeight="1">
-      <c r="B52" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="22" t="s">
+      <c r="E54" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="G54" s="22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="58.5" hidden="1" customHeight="1">
-      <c r="B53" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="22" t="s">
+    <row r="55" spans="2:7" ht="60" customHeight="1">
+      <c r="B55" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E55" s="23" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="58.5" hidden="1" customHeight="1">
-      <c r="B54" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54" s="22" t="s">
+    <row r="56" spans="2:7" ht="60" customHeight="1">
+      <c r="B56" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E56" s="23" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B55" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="22" t="s">
+    <row r="57" spans="2:7" ht="60" customHeight="1">
+      <c r="B57" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B56" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="22" t="s">
+      <c r="E57" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D56" s="27"/>
-    </row>
-    <row r="57" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B57" s="22" t="s">
+    </row>
+    <row r="58" spans="2:7" ht="60" customHeight="1">
+      <c r="B58" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="E58" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="27"/>
-    </row>
-    <row r="58" spans="2:7" ht="36.75" hidden="1" customHeight="1">
-      <c r="B58" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" s="22" t="s">
+      <c r="G58" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="27"/>
-    </row>
-    <row r="59" spans="2:7" ht="36.75" hidden="1" customHeight="1">
+    </row>
+    <row r="59" spans="2:7" ht="60" customHeight="1">
       <c r="B59" s="22" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C59" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D59" s="27"/>
-    </row>
-    <row r="60" spans="2:7" ht="36.75" hidden="1" customHeight="1">
+      <c r="E59" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="36.75" customHeight="1">
       <c r="B60" s="22" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="36.75" hidden="1" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="60" customHeight="1">
       <c r="B61" s="22" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="36.75" hidden="1" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="58.5" customHeight="1">
       <c r="B62" s="22" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="36.75" hidden="1" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="58.5" customHeight="1">
       <c r="B63" s="22" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="36.75" hidden="1" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="36.75" customHeight="1">
       <c r="B64" s="22" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="E64" s="23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="36.75" hidden="1" customHeight="1">
+    <row r="65" spans="2:5" ht="36.75" customHeight="1">
       <c r="B65" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="D65" s="27"/>
+    </row>
+    <row r="66" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B66" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="D65" s="27"/>
-    </row>
-    <row r="66" spans="2:4" ht="36.75" hidden="1" customHeight="1">
-      <c r="B66" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>239</v>
       </c>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="2:4" ht="36.75" hidden="1" customHeight="1">
+    <row r="67" spans="2:5" ht="36.75" customHeight="1">
       <c r="B67" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>240</v>
       </c>
       <c r="D67" s="27"/>
     </row>
-    <row r="68" spans="2:4" ht="36.75" hidden="1" customHeight="1">
+    <row r="68" spans="2:5" ht="36.75" customHeight="1">
       <c r="B68" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>241</v>
       </c>
       <c r="D68" s="27"/>
     </row>
-    <row r="69" spans="2:4" ht="36.75" hidden="1" customHeight="1">
-      <c r="D69" s="27"/>
+    <row r="69" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B69" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B70" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B71" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B72" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B73" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B74" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B75" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B76" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="2:5" ht="36.75" customHeight="1">
+      <c r="B77" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="2:5" ht="36.75" customHeight="1">
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E69" xr:uid="{913ADA01-2A5C-4AD7-9B74-A825D20E4BA2}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Capabilities"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:E78" xr:uid="{913ADA01-2A5C-4AD7-9B74-A825D20E4BA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6320,46 +6495,46 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6388,35 +6563,35 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="12" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="12" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C4" s="12" t="str">
         <f t="shared" ref="C4:C38" si="0">D4&amp;" "&amp;E4</f>
@@ -6427,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -6442,7 +6617,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="12" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6453,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F5" s="12">
         <v>0</v>
@@ -6468,7 +6643,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -6479,7 +6654,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6494,7 +6669,7 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -6505,7 +6680,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6520,7 +6695,7 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="12" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6531,7 +6706,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
@@ -6546,7 +6721,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="12" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6557,7 +6732,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
@@ -6572,7 +6747,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -6582,7 +6757,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6597,7 +6772,7 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="12" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6608,7 +6783,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
@@ -6623,7 +6798,7 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -6633,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -6648,7 +6823,7 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -6658,7 +6833,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -6673,7 +6848,7 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -6683,7 +6858,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6698,7 +6873,7 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -6708,7 +6883,7 @@
         <v>800</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6723,7 +6898,7 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -6733,7 +6908,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6748,7 +6923,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -6758,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6773,7 +6948,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -6783,7 +6958,7 @@
         <v>1.5</v>
       </c>
       <c r="E18" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6798,7 +6973,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -6808,7 +6983,7 @@
         <v>1000</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -6823,7 +6998,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -6833,7 +7008,7 @@
         <v>2000</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -6848,7 +7023,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -6858,7 +7033,7 @@
         <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -6873,7 +7048,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="12" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C22" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6884,7 +7059,7 @@
         <v>70</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F22" s="12">
         <v>0</v>
@@ -6899,7 +7074,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="12" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6910,7 +7085,7 @@
         <v>100</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
@@ -6925,7 +7100,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="12" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C24" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6936,7 +7111,7 @@
         <v>600</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F24" s="12">
         <v>0</v>
@@ -6951,7 +7126,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -6961,7 +7136,7 @@
         <v>0.2</v>
       </c>
       <c r="E25" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -6976,7 +7151,7 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -6987,7 +7162,7 @@
         <v>1030.05</v>
       </c>
       <c r="E26" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -7002,7 +7177,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -7012,7 +7187,7 @@
         <v>500</v>
       </c>
       <c r="E27" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7027,7 +7202,7 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -7038,7 +7213,7 @@
         <v>4000</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -7053,7 +7228,7 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -7063,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -7078,7 +7253,7 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -7089,7 +7264,7 @@
         <v>320</v>
       </c>
       <c r="E30" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -7104,7 +7279,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -7114,7 +7289,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -7129,7 +7304,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -7151,7 +7326,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -7161,7 +7336,7 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -7176,7 +7351,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -7186,7 +7361,7 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -7201,14 +7376,14 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">1.5m (H) x 1.5m (W) x 2.5m (L) </v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -7222,7 +7397,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -7232,7 +7407,7 @@
         <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -7247,7 +7422,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -7257,7 +7432,7 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -7272,7 +7447,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -7282,7 +7457,7 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -7326,282 +7501,282 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C3">
         <v>800</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="6" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C5" s="6">
         <v>80</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C6" s="20">
         <v>75</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C7" s="20">
         <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C8" s="20">
         <f>C6-C7</f>
         <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C11" s="6">
         <v>70</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C12" s="6">
         <v>100</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="6" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C13" s="6">
         <v>600</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="6" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C17">
         <f>ROUND(C3/C8,0)</f>
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C18" s="7">
         <f>C17/C16</f>
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C19" s="21">
         <f>C18*C4*2</f>
         <v>9000</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C20" s="8">
         <f>C3/C11/C16</f>
         <v>5.7142857142857144</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C21" s="8">
         <f>C3/C12/C16</f>
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C22" s="8">
         <f>C19/2/C9/3600</f>
         <v>1.25</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C23" s="8">
         <f>C3/C13/C16</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C24" s="8">
         <f>C19/2/C10/3600</f>
         <v>1.25</v>
       </c>
       <c r="D24" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="6" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C25" s="9">
         <v>8</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="10" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C26" s="11">
         <f>SUM(C20:C25)</f>
         <v>20.88095238095238</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -7626,10 +7801,10 @@
   <sheetData>
     <row r="3" spans="7:8">
       <c r="G3" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="7:8">
@@ -7900,7 +8075,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -7934,7 +8109,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="5" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8037,7 +8212,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -8082,28 +8257,28 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="5" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="5" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="5" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="5" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
